--- a/output/QUALITY/rebalance/rebalance_20241231.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20241231.xlsx
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02699375535603726</v>
+        <v>0.02699382252518122</v>
       </c>
       <c r="C2" t="n">
         <v>0.02282787186722809</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004165883488809169</v>
+        <v>-0.004165950657953135</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02780491703485651</v>
+        <v>0.02780547028568999</v>
       </c>
       <c r="C3" t="n">
         <v>0.02263546143176625</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.005169455603090262</v>
+        <v>-0.005170008853923738</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02144618253783278</v>
+        <v>0.02144600607041669</v>
       </c>
       <c r="C4" t="n">
         <v>0.02256419791923327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001118015381400491</v>
+        <v>0.001118191848816581</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02143381746148984</v>
+        <v>0.02143390270073755</v>
       </c>
       <c r="C5" t="n">
         <v>0.02253916647358238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001105349012092541</v>
+        <v>0.001105263772844825</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02073104283606271</v>
+        <v>0.02073159188871457</v>
       </c>
       <c r="C6" t="n">
         <v>0.02232048516879495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001589442332732241</v>
+        <v>0.001588893280080387</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02020768256775472</v>
+        <v>0.02020742159665822</v>
       </c>
       <c r="C7" t="n">
         <v>0.02231618979713779</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002108507229383071</v>
+        <v>0.002108768200479571</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01769341562871047</v>
+        <v>0.0176934232732905</v>
       </c>
       <c r="C8" t="n">
         <v>0.02229090772728981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004597492098579337</v>
+        <v>0.004597484453999306</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02128269829270053</v>
+        <v>0.02128274141842085</v>
       </c>
       <c r="C10" t="n">
         <v>0.02194900913753001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006663108448294874</v>
+        <v>0.0006662677191091627</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01509261262668677</v>
+        <v>0.0150926723528545</v>
       </c>
       <c r="C11" t="n">
         <v>0.02156776200793442</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006475149381247648</v>
+        <v>0.006475089655079924</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01906068385695703</v>
+        <v>0.01906086827619256</v>
       </c>
       <c r="C12" t="n">
         <v>0.02153630671444093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002475622857483897</v>
+        <v>0.002475438438248375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02725096042139367</v>
+        <v>0.02725031102237436</v>
       </c>
       <c r="C13" t="n">
         <v>0.02151762289849577</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005733337522897893</v>
+        <v>-0.005732688123878581</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02625538480384843</v>
+        <v>0.02625515084861642</v>
       </c>
       <c r="C14" t="n">
         <v>0.02146023850028417</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004795146303564264</v>
+        <v>-0.004794912348332254</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02457534116371181</v>
+        <v>0.02457561272179233</v>
       </c>
       <c r="C15" t="n">
         <v>0.02122273228611475</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003352608877597058</v>
+        <v>-0.003352880435677583</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01494186722996133</v>
+        <v>0.01494190442659665</v>
       </c>
       <c r="C16" t="n">
         <v>0.02116614613408427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006224278904122941</v>
+        <v>0.006224241707487616</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01773791685826279</v>
+        <v>0.01773779706332508</v>
       </c>
       <c r="C17" t="n">
         <v>0.02109522688381008</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003357310025547289</v>
+        <v>0.003357429820484998</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01685624194305656</v>
+        <v>0.01685628804729693</v>
       </c>
       <c r="C18" t="n">
         <v>0.02108983779541114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004233595852354582</v>
+        <v>0.004233549748114213</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02366210105161758</v>
+        <v>0.02366257330950061</v>
       </c>
       <c r="C19" t="n">
         <v>0.02108876113269623</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002573339918921346</v>
+        <v>-0.002573812176804382</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01625697179851394</v>
+        <v>0.01625705104668026</v>
       </c>
       <c r="C20" t="n">
         <v>0.02071739343904601</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004460421640532064</v>
+        <v>0.004460342392365747</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01565588731094968</v>
+        <v>0.01565581708716612</v>
       </c>
       <c r="C21" t="n">
         <v>0.02057796397887882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004922076667929147</v>
+        <v>0.004922146891712699</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01676792947768634</v>
+        <v>0.01676806085952893</v>
       </c>
       <c r="C22" t="n">
         <v>0.02039599520544775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003628065727761413</v>
+        <v>0.003627934345918821</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01972839136269401</v>
+        <v>0.01972853904865534</v>
       </c>
       <c r="C23" t="n">
         <v>0.02022429080852933</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004958994458353211</v>
+        <v>0.0004957517598739858</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02069768124388446</v>
+        <v>0.02069795072515495</v>
       </c>
       <c r="C25" t="n">
         <v>0.02004279814789314</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0006548830959913245</v>
+        <v>-0.0006551525772618104</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01761284319397118</v>
+        <v>0.01761308096452252</v>
       </c>
       <c r="C26" t="n">
         <v>0.02001913676739888</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002406293573427698</v>
+        <v>0.002406055802876356</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02098503659984223</v>
+        <v>0.0209850084279943</v>
       </c>
       <c r="C27" t="n">
         <v>0.01993087463767647</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001054161962165765</v>
+        <v>-0.001054133790317831</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01508515347868653</v>
+        <v>0.0150851856688407</v>
       </c>
       <c r="C28" t="n">
         <v>0.01969354026828152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004608386789594993</v>
+        <v>0.004608354599440824</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04055639754127417</v>
+        <v>0.04055583465309198</v>
       </c>
       <c r="C29" t="n">
         <v>0.01951731014307436</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02103908739819981</v>
+        <v>-0.02103852451001761</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01892920087658397</v>
+        <v>0.01892921052441123</v>
       </c>
       <c r="C30" t="n">
         <v>0.01936372949958627</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004345286230022991</v>
+        <v>0.0004345189751750397</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01825450423752242</v>
+        <v>0.01825450947654034</v>
       </c>
       <c r="C32" t="n">
         <v>0.0191130178846998</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0008585136471773794</v>
+        <v>0.0008585084081594654</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01901690918757364</v>
+        <v>0.01901679920370494</v>
       </c>
       <c r="C33" t="n">
         <v>0.0190751796603013</v>
       </c>
       <c r="D33" t="n">
-        <v>5.827047272765826e-05</v>
+        <v>5.838045659635818e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01948465730429762</v>
+        <v>0.01948446496159715</v>
       </c>
       <c r="C34" t="n">
         <v>0.01906214874518751</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0004225085591101178</v>
+        <v>-0.0004223162164096392</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02121603362239308</v>
+        <v>0.02121619621144792</v>
       </c>
       <c r="C35" t="n">
         <v>0.01897990748237991</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.002236126140013169</v>
+        <v>-0.002236288729068014</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01780076398660785</v>
+        <v>0.01780062465222196</v>
       </c>
       <c r="C36" t="n">
         <v>0.01881411181260447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001013347825996623</v>
+        <v>0.001013487160382513</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02050249413846674</v>
+        <v>0.020502685396115</v>
       </c>
       <c r="C37" t="n">
         <v>0.01856309262070731</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001939401517759433</v>
+        <v>-0.001939592775407693</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01857537873044056</v>
+        <v>0.01857567933836988</v>
       </c>
       <c r="C38" t="n">
         <v>0.01855591285948722</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.946587095334046e-05</v>
+        <v>-1.976647888266014e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01509340404002939</v>
+        <v>0.01509338407349466</v>
       </c>
       <c r="C39" t="n">
         <v>0.0185103563993337</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003416952359304309</v>
+        <v>0.003416972325839039</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01738696756344849</v>
+        <v>0.01738651988556281</v>
       </c>
       <c r="C40" t="n">
         <v>0.01834252057795974</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0009555530145112547</v>
+        <v>0.0009560006923969265</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01702901603067906</v>
+        <v>0.01702879563494917</v>
       </c>
       <c r="C41" t="n">
         <v>0.01825941045066387</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001230394419984807</v>
+        <v>0.001230614815714699</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01633442508572939</v>
+        <v>0.01633439427590493</v>
       </c>
       <c r="C42" t="n">
         <v>0.01810652475877065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.001772099673041264</v>
+        <v>0.00177213048286572</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02067233240993864</v>
+        <v>0.02067214723116167</v>
       </c>
       <c r="C44" t="n">
         <v>0.01808511511435006</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002587217295588581</v>
+        <v>-0.002587032116811612</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02206127216826812</v>
+        <v>0.02206131133092056</v>
       </c>
       <c r="C45" t="n">
         <v>0.0180397420327112</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.004021530135556919</v>
+        <v>-0.004021569298209356</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02118276614319018</v>
+        <v>0.02118284927911591</v>
       </c>
       <c r="C46" t="n">
         <v>0.01802766957936117</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003155096563829011</v>
+        <v>-0.003155179699754745</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01376206329892792</v>
+        <v>0.01376221554969179</v>
       </c>
       <c r="C48" t="n">
         <v>0.01790757334039174</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004145510041463815</v>
+        <v>0.004145357790699951</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01750810899247849</v>
+        <v>0.01750815326278438</v>
       </c>
       <c r="C49" t="n">
         <v>0.01786027461730863</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0003521656248301475</v>
+        <v>0.0003521213545242506</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7236,13 +7236,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01803953178678379</v>
+        <v>0.01803963297538184</v>
       </c>
       <c r="C50" t="n">
         <v>0.01776590124387418</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.00027363054290961</v>
+        <v>-0.0002737317315076628</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01547076263637148</v>
+        <v>0.01547069125041296</v>
       </c>
       <c r="C51" t="n">
         <v>0.01775104812507985</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002280285488708374</v>
+        <v>0.002280356874666888</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01769661751622355</v>
+        <v>0.01769690093720266</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01769661751622355</v>
+        <v>-0.01769690093720266</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01986287031240164</v>
+        <v>0.01986296659765822</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01986287031240164</v>
+        <v>-0.01986296659765822</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01748841970529805</v>
+        <v>0.01748834757465544</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01748841970529805</v>
+        <v>-0.01748834757465544</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03069137356009475</v>
+        <v>0.03069064280049941</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03069137356009475</v>
+        <v>-0.03069064280049941</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01956721298780788</v>
+        <v>0.01956679126690114</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01956721298780788</v>
+        <v>-0.01956679126690114</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>

--- a/output/QUALITY/rebalance/rebalance_20241231.xlsx
+++ b/output/QUALITY/rebalance/rebalance_20241231.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16.85%</t>
+          <t>16.87%</t>
         </is>
       </c>
     </row>
@@ -6228,13 +6228,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02699382252518122</v>
+        <v>0.02700988030615617</v>
       </c>
       <c r="C2" t="n">
         <v>0.02282787186722809</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.004165950657953135</v>
+        <v>-0.004182008438928086</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6249,13 +6249,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02780547028568999</v>
+        <v>0.02782152653932649</v>
       </c>
       <c r="C3" t="n">
         <v>0.02263546143176625</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.005170008853923738</v>
+        <v>-0.005186065107560235</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6270,13 +6270,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02144600607041669</v>
+        <v>0.02145899359798733</v>
       </c>
       <c r="C4" t="n">
         <v>0.02256419791923327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001118191848816581</v>
+        <v>0.001105204321245938</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6291,13 +6291,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02143390270073755</v>
+        <v>0.02144662113526053</v>
       </c>
       <c r="C5" t="n">
         <v>0.02253916647358238</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001105263772844825</v>
+        <v>0.00109254533832185</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6312,13 +6312,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02073159188871457</v>
+        <v>0.0202252970996838</v>
       </c>
       <c r="C6" t="n">
         <v>0.02232048516879495</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001588893280080387</v>
+        <v>0.002095188069111152</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6333,13 +6333,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02020742159665822</v>
+        <v>0.02021975379938314</v>
       </c>
       <c r="C7" t="n">
         <v>0.02231618979713779</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002108768200479571</v>
+        <v>0.00209643599775465</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6354,13 +6354,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0176934232732905</v>
+        <v>0.01770398494152684</v>
       </c>
       <c r="C8" t="n">
         <v>0.02229090772728981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004597484453999306</v>
+        <v>0.004586922785762972</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6396,13 +6396,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02128274141842085</v>
+        <v>0.02129541169414613</v>
       </c>
       <c r="C10" t="n">
         <v>0.02194900913753001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0006662677191091627</v>
+        <v>0.0006535974433838874</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6417,13 +6417,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0150926723528545</v>
+        <v>0.01510162832763536</v>
       </c>
       <c r="C11" t="n">
         <v>0.02156776200793442</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006475089655079924</v>
+        <v>0.006466133680299063</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6438,13 +6438,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01906086827619256</v>
+        <v>0.01907206991911741</v>
       </c>
       <c r="C12" t="n">
         <v>0.02153630671444093</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002475438438248375</v>
+        <v>0.002464236795323524</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02725031102237436</v>
+        <v>0.02726723901515329</v>
       </c>
       <c r="C13" t="n">
         <v>0.02151762289849577</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.005732688123878581</v>
+        <v>-0.00574961611665752</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6480,13 +6480,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02625515084861642</v>
+        <v>0.02627106868201695</v>
       </c>
       <c r="C14" t="n">
         <v>0.02146023850028417</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004794912348332254</v>
+        <v>-0.004810830181732787</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02457561272179233</v>
+        <v>0.02459002145347489</v>
       </c>
       <c r="C15" t="n">
         <v>0.02122273228611475</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.003352880435677583</v>
+        <v>-0.003367289167360135</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6522,13 +6522,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01494190442659665</v>
+        <v>0.01495079288186076</v>
       </c>
       <c r="C16" t="n">
         <v>0.02116614613408427</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006224241707487616</v>
+        <v>0.006215353252223508</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01773779706332508</v>
+        <v>0.01774851275426838</v>
       </c>
       <c r="C17" t="n">
         <v>0.02109522688381008</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003357429820484998</v>
+        <v>0.003346714129541701</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6564,13 +6564,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01685628804729693</v>
+        <v>0.01686631116302759</v>
       </c>
       <c r="C18" t="n">
         <v>0.02108983779541114</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004233549748114213</v>
+        <v>0.004223526632383554</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6585,13 +6585,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02366257330950061</v>
+        <v>0.02367623580960636</v>
       </c>
       <c r="C19" t="n">
         <v>0.02108876113269623</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.002573812176804382</v>
+        <v>-0.002587474676910135</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01625705104668026</v>
+        <v>0.01626668303935013</v>
       </c>
       <c r="C20" t="n">
         <v>0.02071739343904601</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004460342392365747</v>
+        <v>0.004450710399695877</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6627,13 +6627,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01565581708716612</v>
+        <v>0.01566523948883775</v>
       </c>
       <c r="C21" t="n">
         <v>0.02057796397887882</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004922146891712699</v>
+        <v>0.004912724490041077</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6648,13 +6648,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01676806085952893</v>
+        <v>0.01677794594345254</v>
       </c>
       <c r="C22" t="n">
         <v>0.02039599520544775</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003627934345918821</v>
+        <v>0.003618049261995205</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6669,13 +6669,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01972853904865534</v>
+        <v>0.01974017628563098</v>
       </c>
       <c r="C23" t="n">
         <v>0.02022429080852933</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0004957517598739858</v>
+        <v>0.0004841145228983539</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02069795072515495</v>
+        <v>0.02071004518040359</v>
       </c>
       <c r="C25" t="n">
         <v>0.02004279814789314</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0006551525772618104</v>
+        <v>-0.0006672470325104519</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6732,13 +6732,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01761308096452252</v>
+        <v>0.01762336437615606</v>
       </c>
       <c r="C26" t="n">
         <v>0.02001913676739888</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002406055802876356</v>
+        <v>0.002395772391242813</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0209850084279943</v>
+        <v>0.02091834325855121</v>
       </c>
       <c r="C27" t="n">
         <v>0.01993087463767647</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.001054133790317831</v>
+        <v>-0.0009874686208747388</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6774,13 +6774,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0150851856688407</v>
+        <v>0.0150941647238494</v>
       </c>
       <c r="C28" t="n">
         <v>0.01969354026828152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004608354599440824</v>
+        <v>0.004599375544432117</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6795,13 +6795,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04055583465309198</v>
+        <v>0.04058062425144219</v>
       </c>
       <c r="C29" t="n">
         <v>0.01951731014307436</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.02103852451001761</v>
+        <v>-0.02106331410836782</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6816,13 +6816,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01892921052441123</v>
+        <v>0.01894050839626399</v>
       </c>
       <c r="C30" t="n">
         <v>0.01936372949958627</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0004345189751750397</v>
+        <v>0.0004232211033222792</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6858,13 +6858,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01825450947654034</v>
+        <v>0.01826540872140742</v>
       </c>
       <c r="C32" t="n">
         <v>0.0191130178846998</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0008585084081594654</v>
+        <v>0.0008476091632923823</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01901679920370494</v>
+        <v>0.01902826910056171</v>
       </c>
       <c r="C33" t="n">
         <v>0.0190751796603013</v>
       </c>
       <c r="D33" t="n">
-        <v>5.838045659635818e-05</v>
+        <v>4.691055973958871e-05</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6900,13 +6900,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01948446496159715</v>
+        <v>0.01949629663061484</v>
       </c>
       <c r="C34" t="n">
         <v>0.01906214874518751</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0004223162164096392</v>
+        <v>-0.0004341478854273349</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02121619621144792</v>
+        <v>0.02122870720112897</v>
       </c>
       <c r="C35" t="n">
         <v>0.01897990748237991</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.002236288729068014</v>
+        <v>-0.002248799718749063</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6942,13 +6942,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01780062465222196</v>
+        <v>0.01781139742488188</v>
       </c>
       <c r="C36" t="n">
         <v>0.01881411181260447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001013487160382513</v>
+        <v>0.001002714387722592</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -6963,13 +6963,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.020502685396115</v>
+        <v>0.02051474147830278</v>
       </c>
       <c r="C37" t="n">
         <v>0.01856309262070731</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.001939592775407693</v>
+        <v>-0.001951648857595467</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -6984,13 +6984,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01857567933836988</v>
+        <v>0.01858647489144215</v>
       </c>
       <c r="C38" t="n">
         <v>0.01855591285948722</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.976647888266014e-05</v>
+        <v>-3.056203195492962e-05</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7005,13 +7005,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01509338407349466</v>
+        <v>0.01510242021373549</v>
       </c>
       <c r="C39" t="n">
         <v>0.0185103563993337</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003416972325839039</v>
+        <v>0.003407936185598211</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01738651988556281</v>
+        <v>0.01739735381689793</v>
       </c>
       <c r="C40" t="n">
         <v>0.01834252057795974</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0009560006923969265</v>
+        <v>0.000945166761061815</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7047,13 +7047,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01702879563494917</v>
+        <v>0.01703918845872576</v>
       </c>
       <c r="C41" t="n">
         <v>0.01825941045066387</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001230614815714699</v>
+        <v>0.001220221991938112</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01633439427590493</v>
+        <v>0.01634418259394765</v>
       </c>
       <c r="C42" t="n">
         <v>0.01810652475877065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00177213048286572</v>
+        <v>0.001762342164822999</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7110,13 +7110,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02067214723116167</v>
+        <v>0.0206846812041155</v>
       </c>
       <c r="C44" t="n">
         <v>0.01808511511435006</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002587032116811612</v>
+        <v>-0.002599566089765439</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7131,13 +7131,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.02206131133092056</v>
+        <v>0.02207445065746243</v>
       </c>
       <c r="C45" t="n">
         <v>0.0180397420327112</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.004021569298209356</v>
+        <v>-0.004034708624751224</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7152,13 +7152,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02118284927911591</v>
+        <v>0.02119541984931347</v>
       </c>
       <c r="C46" t="n">
         <v>0.01802766957936117</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.003155179699754745</v>
+        <v>-0.003167750269952301</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7194,13 +7194,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01376221554969179</v>
+        <v>0.01377028418488105</v>
       </c>
       <c r="C48" t="n">
         <v>0.01790757334039174</v>
       </c>
       <c r="D48" t="n">
-        <v>0.004145357790699951</v>
+        <v>0.004137289155510687</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7215,13 +7215,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01750815326278438</v>
+        <v>0.01751856761079433</v>
       </c>
       <c r="C49" t="n">
         <v>0.01786027461730863</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0003521213545242506</v>
+        <v>0.0003417070065143031</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7236,13 +7236,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01803963297538184</v>
+        <v>0.01805030785504083</v>
       </c>
       <c r="C50" t="n">
         <v>0.01776590124387418</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0002737317315076628</v>
+        <v>-0.0002844066111666529</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01547069125041296</v>
+        <v>0.01548000422845537</v>
       </c>
       <c r="C51" t="n">
         <v>0.01775104812507985</v>
       </c>
       <c r="D51" t="n">
-        <v>0.002280356874666888</v>
+        <v>0.00227104389662448</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -7278,13 +7278,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01769690093720266</v>
+        <v>0.01770718874171475</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01769690093720266</v>
+        <v>-0.01770718874171475</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01986296659765822</v>
+        <v>0.01987473556748682</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01986296659765822</v>
+        <v>-0.01987473556748682</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7320,13 +7320,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01748834757465544</v>
+        <v>0.01749886656205019</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01748834757465544</v>
+        <v>-0.01749886656205019</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03069064280049941</v>
+        <v>0.03070970731400227</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03069064280049941</v>
+        <v>-0.03070970731400227</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7362,13 +7362,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01956679126690114</v>
+        <v>0.01957890162946716</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01956679126690114</v>
+        <v>-0.01957890162946716</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
